--- a/20220923_掲示板-設計.xlsx
+++ b/20220923_掲示板-設計.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DB設計" sheetId="1" r:id="rId1"/>
-    <sheet name="Image" sheetId="2" r:id="rId2"/>
-    <sheet name="認証" sheetId="3" r:id="rId3"/>
-    <sheet name="Log" sheetId="4" r:id="rId4"/>
-    <sheet name="接続管理" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="DB設計" sheetId="6" r:id="rId2"/>
+    <sheet name="DB設計(NG)" sheetId="1" r:id="rId3"/>
+    <sheet name="Image" sheetId="2" r:id="rId4"/>
+    <sheet name="認証" sheetId="3" r:id="rId5"/>
+    <sheet name="Log" sheetId="4" r:id="rId6"/>
+    <sheet name="接続管理" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="410">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
@@ -2642,6 +2644,860 @@
   </si>
   <si>
     <t>sessionidcounter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板データの格納案</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド名ID</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4つのテーブルで管理する</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板のTop画面に表示させるための情報を保持</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新は　スレッド作成者のみ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの掲載内容</t>
+    <rPh sb="5" eb="7">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスカション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新は　投稿者のみ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソートキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者名</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownername</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細情報</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/(スレッド名ID)/discussion</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポスト情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者名</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票区分</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:なし　1:賛成のみ許可  2:否定のみ許可  3:賛成否定を許可</t>
+    <rPh sb="7" eb="9">
+      <t>サンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票内容</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証済み</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　@true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票者名</t>
+    <rPh sb="0" eb="3">
+      <t>トウヒョウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票者</t>
+    <rPh sb="0" eb="3">
+      <t>トウヒョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分/種類</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownerids:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detailsOrg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容(過去)</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threadId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：details   1:vote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/(スレッド名ID)/vote</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownerid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者ID(mailAddress)</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownerid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownername</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票者ID(mailAddress)</t>
+    <rPh sb="0" eb="3">
+      <t>トウヒョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto-increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　https://qiita.com/1amageek/items/665df5a6d9921319e300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voteflg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[BulletinBoardList]コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"BBS01"ドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"スレタイ０１"ドキュメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド情報 ドキュメント</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板のタイトル</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドのタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[discussion]コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Doc内データ例</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[vote]コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　@false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板タイトル</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[threadList]コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threadId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[threadConfig]コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/(スレッド名ID)/threadConfig</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレ管理者</t>
+    <rPh sb="2" eb="5">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド設定情報</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FieldValue.increment(1.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークにすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteflg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">key = </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boradID(登録時設定）</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modified_sys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド名ID　のと一致させること</t>
+    <rPh sb="10" eb="12">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時(表示用）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現時点最大スレッドsortIndex</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板ID</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※update,deleteに関しては、documentに[スレ管理者|ownerids]が未定義の場合</t>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ミテイギ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_system</t>
+  </si>
+  <si>
+    <t>スレッド_system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sortIndex_Max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>threadtype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownername</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overview:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド設定情報のと一致させること (DBのルール定義に必要になる)</t>
+    <rPh sb="10" eb="12">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localStorage,indexDB の　全データ削除機能を追加したい</t>
+    <rPh sb="23" eb="24">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList</t>
+  </si>
+  <si>
+    <t>indexedDBのstore :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indexedDBの Key :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(threadId)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(threadId)_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indexedDBの Index :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sortIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadDetails</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voteIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ indexedId のデータには、(threadId)列を追加する必要がある</t>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"開催日時"列が欲しい？</t>
+    <rPh sb="1" eb="3">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[(threadId_post),(postid)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[(threadId_vote),(ownerid)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(threadId_post)_(postid)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(threadId_vote)_vote_(ownerid)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteflg</t>
+  </si>
+  <si>
+    <t>postid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2680,12 +3536,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2702,7 +3564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2714,6 +3576,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2734,6 +3599,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790825" y="10896600"/>
+          <a:ext cx="3743325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2733675" y="12963525"/>
+          <a:ext cx="3743325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2600325" y="13820775"/>
+          <a:ext cx="3743325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2892,7 +3894,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18872,7 +19874,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30362,10 +31364,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="U1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>350</v>
+      </c>
+      <c r="M16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>341</v>
+      </c>
+      <c r="N18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>342</v>
+      </c>
+      <c r="M20" t="s">
+        <v>352</v>
+      </c>
+      <c r="N20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="I22" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>331</v>
+      </c>
+      <c r="E33" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" t="s">
+        <v>359</v>
+      </c>
+      <c r="H33" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" t="s">
+        <v>371</v>
+      </c>
+      <c r="E34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>369</v>
+      </c>
+      <c r="L36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>373</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>334</v>
+      </c>
+      <c r="I38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" t="s">
+        <v>275</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" t="s">
+        <v>392</v>
+      </c>
+      <c r="O43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" t="s">
+        <v>306</v>
+      </c>
+      <c r="M44" t="s">
+        <v>393</v>
+      </c>
+      <c r="O44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H45" t="s">
+        <v>332</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="s">
+        <v>397</v>
+      </c>
+      <c r="O45" t="s">
+        <v>286</v>
+      </c>
+      <c r="R45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" t="s">
+        <v>371</v>
+      </c>
+      <c r="E46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E48" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" t="s">
+        <v>368</v>
+      </c>
+      <c r="I48" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>384</v>
+      </c>
+      <c r="G50" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>334</v>
+      </c>
+      <c r="I51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>313</v>
+      </c>
+      <c r="G52" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>385</v>
+      </c>
+      <c r="G54" t="s">
+        <v>334</v>
+      </c>
+      <c r="I54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>386</v>
+      </c>
+      <c r="G56" t="s">
+        <v>334</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="E57" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" t="s">
+        <v>379</v>
+      </c>
+      <c r="M60" t="s">
+        <v>392</v>
+      </c>
+      <c r="O60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>305</v>
+      </c>
+      <c r="E61" t="s">
+        <v>306</v>
+      </c>
+      <c r="M61" t="s">
+        <v>393</v>
+      </c>
+      <c r="O61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>331</v>
+      </c>
+      <c r="E62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" t="s">
+        <v>330</v>
+      </c>
+      <c r="G62" t="s">
+        <v>306</v>
+      </c>
+      <c r="H62" t="s">
+        <v>332</v>
+      </c>
+      <c r="I62" t="s">
+        <v>359</v>
+      </c>
+      <c r="K62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E63" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>382</v>
+      </c>
+      <c r="G65" t="s">
+        <v>333</v>
+      </c>
+      <c r="I65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" t="s">
+        <v>366</v>
+      </c>
+      <c r="I69" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" t="s">
+        <v>364</v>
+      </c>
+      <c r="M70" t="s">
+        <v>392</v>
+      </c>
+      <c r="O70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" t="s">
+        <v>306</v>
+      </c>
+      <c r="M71" t="s">
+        <v>393</v>
+      </c>
+      <c r="O71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" t="s">
+        <v>330</v>
+      </c>
+      <c r="G72" t="s">
+        <v>365</v>
+      </c>
+      <c r="H72" t="s">
+        <v>332</v>
+      </c>
+      <c r="I72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" t="s">
+        <v>371</v>
+      </c>
+      <c r="E73" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>304</v>
+      </c>
+      <c r="N74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E75" t="s">
+        <v>338</v>
+      </c>
+      <c r="G75" t="s">
+        <v>333</v>
+      </c>
+      <c r="I75" t="s">
+        <v>319</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="N75" t="s">
+        <v>31</v>
+      </c>
+      <c r="P75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E76" t="s">
+        <v>286</v>
+      </c>
+      <c r="G76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E77" t="s">
+        <v>373</v>
+      </c>
+      <c r="G77" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E78" t="s">
+        <v>312</v>
+      </c>
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" t="s">
+        <v>333</v>
+      </c>
+      <c r="I79" t="s">
+        <v>297</v>
+      </c>
+      <c r="K79" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="E80" t="s">
+        <v>390</v>
+      </c>
+      <c r="G80" t="s">
+        <v>334</v>
+      </c>
+      <c r="I80" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E81" t="s">
+        <v>370</v>
+      </c>
+      <c r="G81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>293</v>
+      </c>
+      <c r="M85" t="s">
+        <v>392</v>
+      </c>
+      <c r="O85" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" t="s">
+        <v>306</v>
+      </c>
+      <c r="M86" t="s">
+        <v>393</v>
+      </c>
+      <c r="O86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D87" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" t="s">
+        <v>308</v>
+      </c>
+      <c r="H87" t="s">
+        <v>332</v>
+      </c>
+      <c r="I87" t="s">
+        <v>308</v>
+      </c>
+      <c r="M87" t="s">
+        <v>397</v>
+      </c>
+      <c r="O87" t="s">
+        <v>404</v>
+      </c>
+      <c r="R87" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>409</v>
+      </c>
+      <c r="F88" t="s">
+        <v>328</v>
+      </c>
+      <c r="G88" t="s">
+        <v>327</v>
+      </c>
+      <c r="L88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E90" t="s">
+        <v>324</v>
+      </c>
+      <c r="G90" t="s">
+        <v>334</v>
+      </c>
+      <c r="I90" t="s">
+        <v>323</v>
+      </c>
+      <c r="M90" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E91" t="s">
+        <v>325</v>
+      </c>
+      <c r="G91" t="s">
+        <v>334</v>
+      </c>
+      <c r="I91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E92" t="s">
+        <v>313</v>
+      </c>
+      <c r="G92" t="s">
+        <v>149</v>
+      </c>
+      <c r="I92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E93" t="s">
+        <v>317</v>
+      </c>
+      <c r="G93" t="s">
+        <v>149</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>334</v>
+      </c>
+      <c r="I94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E95" t="s">
+        <v>315</v>
+      </c>
+      <c r="G95" t="s">
+        <v>334</v>
+      </c>
+      <c r="I95" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" t="s">
+        <v>284</v>
+      </c>
+      <c r="I97" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C98" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" t="s">
+        <v>321</v>
+      </c>
+      <c r="M98" t="s">
+        <v>392</v>
+      </c>
+      <c r="O98" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" t="s">
+        <v>306</v>
+      </c>
+      <c r="M99" t="s">
+        <v>393</v>
+      </c>
+      <c r="O99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100" t="s">
+        <v>306</v>
+      </c>
+      <c r="F100" t="s">
+        <v>330</v>
+      </c>
+      <c r="G100" t="s">
+        <v>310</v>
+      </c>
+      <c r="H100" t="s">
+        <v>332</v>
+      </c>
+      <c r="I100" t="s">
+        <v>310</v>
+      </c>
+      <c r="M100" t="s">
+        <v>397</v>
+      </c>
+      <c r="O100" t="s">
+        <v>405</v>
+      </c>
+      <c r="R100" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" t="s">
+        <v>371</v>
+      </c>
+      <c r="E101" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>304</v>
+      </c>
+      <c r="M102" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E103" t="s">
+        <v>322</v>
+      </c>
+      <c r="G103" t="s">
+        <v>334</v>
+      </c>
+      <c r="I103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
+        <v>291</v>
+      </c>
+      <c r="G104" t="s">
+        <v>335</v>
+      </c>
+      <c r="I104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" t="s">
+        <v>149</v>
+      </c>
+      <c r="I105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E106" t="s">
+        <v>300</v>
+      </c>
+      <c r="G106" t="s">
+        <v>333</v>
+      </c>
+      <c r="I106" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C7" sqref="C7:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30539,7 +32614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:I10"/>
   <sheetViews>
@@ -30605,7 +32680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP502"/>
   <sheetViews>
@@ -30860,7 +32935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AA514"/>
   <sheetViews>
@@ -31513,11 +33588,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>

--- a/20220923_掲示板-設計.xlsx
+++ b/20220923_掲示板-設計.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9885" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="DB設計" sheetId="6" r:id="rId2"/>
-    <sheet name="DB設計(NG)" sheetId="1" r:id="rId3"/>
-    <sheet name="Image" sheetId="2" r:id="rId4"/>
-    <sheet name="認証" sheetId="3" r:id="rId5"/>
-    <sheet name="Log" sheetId="4" r:id="rId6"/>
-    <sheet name="接続管理" sheetId="5" r:id="rId7"/>
+    <sheet name="拡張時" sheetId="10" r:id="rId3"/>
+    <sheet name="DB設計(NG)" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Image" sheetId="2" r:id="rId6"/>
+    <sheet name="認証" sheetId="3" r:id="rId7"/>
+    <sheet name="Log" sheetId="4" r:id="rId8"/>
+    <sheet name="接続管理" sheetId="5" r:id="rId9"/>
+    <sheet name="BBS表示" sheetId="9" r:id="rId10"/>
+    <sheet name="sort" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="513">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
@@ -2582,60 +2586,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブラウザ側の記憶域。ブラウザウインドウ毎に定義される。ブラウザが閉じると消える。</t>
-    <rPh sb="4" eb="5">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>キオクイキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>localstorage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザ側の記憶域。オリジン (domain/protocol/portのセット)毎の定義。保存期間無し（自動で消えない）</t>
-    <rPh sb="4" eb="5">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>キオクイキ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2990,10 +2941,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>detailsOrg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容(過去)</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -3056,10 +3003,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>auto-increment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>連番</t>
     <rPh sb="0" eb="2">
       <t>レンバン</t>
@@ -3067,10 +3010,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　https://qiita.com/1amageek/items/665df5a6d9921319e300</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>update</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3103,10 +3042,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>voteflg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3221,13 +3156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BulletinBoardList/(board名ID)/threadList/(スレッド名ID)/threadConfig</t>
-    <rPh sb="24" eb="25">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スレ管理者</t>
     <rPh sb="2" eb="5">
       <t>カンリシャ</t>
@@ -3282,13 +3210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スレッド名ID　のと一致させること</t>
-    <rPh sb="10" eb="12">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新日時(表示用）</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -3322,19 +3243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※update,deleteに関しては、documentに[スレ管理者|ownerids]が未定義の場合</t>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>ミテイギ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BulletinBoardList/(board名ID)/threadList/</t>
     <rPh sb="24" eb="25">
       <t>メイ</t>
@@ -3398,10 +3306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>details</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3497,7 +3401,1419 @@
     <t>deleteflg</t>
   </si>
   <si>
-    <t>postid</t>
+    <t>※ブロック制について</t>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirestoreDBへのアクセス数を削減するため、IndexedDBへの退避と、データのブロック分けを行っている。</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイヒ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドのデータにはsort値とmodified_sys値を持たせている前提。</t>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort値は、レコードの生成順に1から始まる連番を付与する。</t>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただしこれは抜け飛びあり。重複は避けるようにするが、小数点以下を許容する（管理者が手作業でソート順を変更する場合の想定）</t>
+    <rPh sb="13" eb="15">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort値での並び替えにおいて、先頭から一定幅でのブロック分けをおこなう。</t>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取得時には、このブロック単位で行うこととする。Firestoreへのリアルタイム取得（ﾘｽﾅ）の設定もこれ単位でおこなう。</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうすることで、リスナ発火時のデータ転送量を小さくする、また不必要なデータは取得せずに済むようにする。</t>
+    <rPh sb="11" eb="13">
+      <t>ハッカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FSのIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一field</t>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複合Index</t>
+    <rPh sb="0" eb="2">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの基準は　modified_sys値を　日数区切り(例えば月別）で定義する。</t>
+    <rPh sb="5" eb="7">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはFirestoreのIndexソートの制約（＞、＜制約は1つのFieldに対してのみ適用できる）があるため。</t>
+    <rPh sb="22" eb="24">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この仕組みのためには、各コレクションデータの"最初の投稿日"が必要となる（最初のブロックの期日の算出に必要）</t>
+    <rPh sb="2" eb="4">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の場合、</t>
+    <rPh sb="1" eb="3">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ブロックの開始期限は　この区切り幅基準のうちのいずれかとなる。但し欠番や隣接統合はあるとする。具体的な値はIndexedDB格納時に決定する。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケツバン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※update,deleteに関しては、documentに[スレ管理者|ownerids]が未定義の場合 として定義</t>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ミテイギ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"_system"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の 或るスレッド の場合なら、</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのスレッドDocumentのField値 (created または modified)</t>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(board名ID)ドキュメント のField値 (created または modified)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>details_old</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/(スレッド名ID)/contents</t>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ側の記憶域。ブラウザウインドウ毎に定義される。ブラウザが閉じると消える(リロードでは消えない)。</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キオクイキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ側の記憶域。オリジン (domain/protocol/portのセット)毎の定義。保存期間無し（自動で消えない：消さないと永遠に残る）</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キオクイキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板01</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs01.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_thread.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド内容詳細　＋　コメント一覧</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの更新時には、変更前の値を　detail_oldに格納したい。これをルールで実現できないか。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ページの上部にはフットプリントを配置したい</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本アプリ内では、基本的にはリンクは使用せずにボタンを使う。(右クリックからの別窓表示等が動作しないため）</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/(スレッド名ID)/contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firestore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardList/(board名ID)/threadList/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IndexedDBのデータを削除したあとにBBSを開くと、初回アクセス時にはデータが見えない。</t>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> awaitの処理が足りていない？</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirestoreのIndexの作り方/使い方がおかしい？？&gt;&gt;再整理！</t>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サイセイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞＞「新しいバージョンのページが使用可能なりました」のダイアログが出続ける！</t>
+    <rPh sb="3" eb="4">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>デツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discussのデータでも、sortの値が無いと、Firestoreの更新データ通知のクエリ条件に掛かってくれない（sort&gt;0が必要）:これは仕様として必要？</t>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除外</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt;&gt;無理っぽい</t>
+    <rPh sb="2" eb="4">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IndexedDBを初期化したら、</t>
+    <rPh sb="10" eb="13">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyAccountの前回アクセスログ　　罫線を変更：　～は独立列に入れる</t>
+    <rPh sb="10" eb="12">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs_thread.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各画面共通</t>
+    <rPh sb="0" eb="3">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（sample)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;p id="footprint"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フットプリント部</t>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ遷移を示すフットプリント表示部。</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window.parent.setEventOfButton_moveFramePage()関数を使用する</t>
+    <rPh sb="46" eb="48">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本、HTMLに直書きで配置。掲示板名等はJSで書き換えする。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル部</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;span id="bbsThread_title"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirestoreDBの "BulletinBoardList/（bbsCode）/threadList/(threadID)"ドキュメントに保存されている[title]値を取得し表示する</t>
+    <rPh sb="71" eb="73">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容部</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧部</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロール部</t>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div id="bbsThread_Details"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dispDetails()関数</t>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirestoreDBの "BulletinBoardList/（bbsCode）/threadList/(threadID)/threadConfig/content"ドキュメントに保存されている、[details]値を取得し表示する</t>
+    <rPh sb="92" eb="94">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div id="bbsThread_ListTable"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dispBBSList()関数</t>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容はJSで記述している。</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FirestoreDBの "BulletinBoardList/（bbsCode）/threadList/(threadID)/discussion"コレクションに保存されている、</t>
+    <rPh sb="82" eb="84">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ここでは最終的には fireStoreDBの ThreadListインデックスを通じてデータが取得されるため、[sort]値を持たないドキュメントは取得されない。</t>
+    <rPh sb="5" eb="8">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（sort値をもたない）ドキュメントが表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title表示部分には、comment画面へのリンクを設ける。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このリンク先URLには、URLオプションとして b=BBSコード、t=スレッドコード、c=コメントコード を渡している</t>
+    <rPh sb="5" eb="6">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前ページ」「次ページ」のボタンを表示する</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　https://qiita.com/1amageek/items/665df5a6d9921319e300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto-increment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 存在しないらしい？</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sort (旧 postid)</t>
+    <rPh sb="6" eb="7">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBS追加時の処理</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各テーブル（スレッドやコメント）に列を追廃したいとき</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firestoreのルールを修正する</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在列のチェックを変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成時に設定される列を追廃する</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前項のFirestoreルールに弾かれないようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlページ(同名のJSファイルを含む）を作成する</t>
+    <rPh sb="8" eb="10">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザのIndexedDBを修正（VersionUP)する</t>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントにも「タイトル」を作っておくべきか。</t>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（indexDBへの登録時など）画面更新に時間がかかることがある。「Loading」等の表示が必要か？</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(全ての項目が無いと弾かれる可能性有）</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※改行は \n </t>
+    <rPh sb="1" eb="3">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※改行は &lt;br /&gt;\n</t>
+    <rPh sb="1" eb="3">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firestoreDBに、掲示板IDドキュメントを追加する</t>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランザクションによる原子性/独立性 の確保</t>
+    <rPh sb="11" eb="13">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ドクリツセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(基本的に、スレッド一覧を表示するための情報）</t>
+    <rPh sb="1" eb="4">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド名ID　のと一致させること　←ルール内で参照させる？</t>
+    <rPh sb="10" eb="12">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここのsort値は登録者が設定する。値は１～999)</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sortIndex_Max</t>
+  </si>
+  <si>
+    <t>voteoptions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列:文字</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列が空の場合は、TitleCategory非表示。""が含まれる場合は 自由記入を許可</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列が空の場合は、非表示。""は設定禁止</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントタイトル設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件名orカテゴリ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_titles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titlecategory</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3505,7 +4821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3530,6 +4846,23 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3564,7 +4897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3579,6 +4912,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3604,13 +4940,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3648,13 +4984,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3692,13 +5028,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3730,6 +5066,393 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2714625" y="11068050"/>
+          <a:ext cx="3743325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867524" y="5133975"/>
+          <a:ext cx="2667001" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69048"/>
+            <a:gd name="adj2" fmla="val 11184"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザーがレコードを登録できるわけではないため、すべて</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加するには、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IndexedDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の設計変更や新規の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定義などが必要）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="10001251"/>
+          <a:ext cx="10086975" cy="1247774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2762250" y="14344650"/>
+          <a:ext cx="3743325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11654117" y="20764500"/>
+          <a:ext cx="3462618" cy="1770529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rules_version = '2';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>service cloud.firestore {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    match /databases/{database}/documents {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>        match /{document=**} {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>            allow read, write: if true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -31093,6 +32816,444 @@
             </a:rPr>
             <a:t>主要処理部</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="885825"/>
+          <a:ext cx="5029200" cy="5191125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;!DOCTYPE html&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;html&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;head&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta charset="utf-8"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta http-equiv="Cache-Control" content="no-cache"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta http-equiv="Pragma" content="no-cache"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta http-equiv="Expires" content="0"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;title&gt;BulletinBoard-thread&lt;/title&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;script type="text/javascript" src="./bbs_thread.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;/head&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;body&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;p id="footprint"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &lt;input type="button" id="button_footprint01" value="Home" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &lt;input type="button" id="button_footprint02" value="BBS" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &lt;input type="button" id="button_footprint03" value="BBS??" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &gt; bbsThread &lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;h1&gt;&lt;span id="bbsThread_title"&gt;&lt;/span&gt;&lt;/h1&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;div id="bbsThread_Details"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;div id="bbsThread_ListTable"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;div id="bbsThread_controll"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;/body&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;/html&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="11525250"/>
+          <a:ext cx="5029200" cy="5191125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;!DOCTYPE html&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;html&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;head&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta charset="utf-8"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta http-equiv="Cache-Control" content="no-cache"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta http-equiv="Pragma" content="no-cache"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta http-equiv="Expires" content="0"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;title&gt;BulletinBoard-thread&lt;/title&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;script type="text/javascript" src="./bbs_thread.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;/head&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;body&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;p id="footprint"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &lt;input type="button" id="button_footprint01" value="Home" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &lt;input type="button" id="button_footprint02" value="BBS" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &lt;input type="button" id="button_footprint03" value="BBS??" /&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       &gt; bbsThread &lt;/p&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;h1&gt;&lt;span id="bbsThread_title"&gt;&lt;/span&gt;&lt;/h1&gt;    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;div id="bbsThread_Details"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;div id="bbsThread_ListTable"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;div id="bbsThread_controll"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    &lt;span id="forTest"&gt;&lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  &lt;/body&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;/html&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -31364,22 +33525,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:B8"/>
+  <dimension ref="A3:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>403</v>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>459</v>
+      </c>
+      <c r="E39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>463</v>
+      </c>
+      <c r="E99" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>466</v>
+      </c>
+      <c r="E103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>474</v>
+      </c>
+      <c r="G104" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>467</v>
+      </c>
+      <c r="E108" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>474</v>
+      </c>
+      <c r="G109" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E111" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F112" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D113" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E114" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -31390,20 +33822,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -31413,7 +33845,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
@@ -31421,20 +33853,20 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
@@ -31442,20 +33874,20 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
@@ -31463,15 +33895,15 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
@@ -31479,793 +33911,777 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
+        <v>336</v>
+      </c>
+      <c r="M20" t="s">
+        <v>346</v>
+      </c>
+      <c r="N20" t="s">
         <v>342</v>
-      </c>
-      <c r="M20" t="s">
-        <v>352</v>
-      </c>
-      <c r="N20" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H21" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H23" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M24" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M26" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" t="s">
         <v>305</v>
       </c>
-      <c r="E32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E33" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G33" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H33" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
         <v>302</v>
       </c>
-      <c r="D34" t="s">
-        <v>371</v>
-      </c>
-      <c r="E34" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
-      </c>
-      <c r="J36" t="s">
-        <v>369</v>
-      </c>
-      <c r="L36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
         <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>361</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="G38" t="s">
-        <v>334</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G39" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" t="s">
+        <v>304</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="O46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>358</v>
+      </c>
+      <c r="H47" t="s">
+        <v>327</v>
+      </c>
+      <c r="I47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>284</v>
+      </c>
+      <c r="T47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" t="s">
+        <v>364</v>
+      </c>
+      <c r="E48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>311</v>
+      </c>
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" t="s">
+        <v>361</v>
+      </c>
+      <c r="I52" t="s">
+        <v>285</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>329</v>
+      </c>
+      <c r="I53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>329</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" t="s">
+        <v>329</v>
+      </c>
+      <c r="I56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>331</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" t="s">
+        <v>329</v>
+      </c>
+      <c r="I58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E59" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" t="s">
+        <v>372</v>
+      </c>
+      <c r="K63" t="s">
+        <v>407</v>
+      </c>
+      <c r="L63" t="s">
+        <v>408</v>
+      </c>
+      <c r="O63" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" t="s">
+        <v>370</v>
+      </c>
+      <c r="L64" t="s">
+        <v>409</v>
+      </c>
+      <c r="O64" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
         <v>275</v>
       </c>
-      <c r="I42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" t="s">
-        <v>274</v>
-      </c>
-      <c r="M43" t="s">
-        <v>392</v>
-      </c>
-      <c r="O43" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
+      <c r="D65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E65" t="s">
+        <v>304</v>
+      </c>
+      <c r="L65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" t="s">
+        <v>304</v>
+      </c>
+      <c r="F66" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" t="s">
+        <v>304</v>
+      </c>
+      <c r="H66" t="s">
+        <v>327</v>
+      </c>
+      <c r="I66" t="s">
+        <v>353</v>
+      </c>
+      <c r="K66" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" t="s">
+        <v>364</v>
+      </c>
+      <c r="E67" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" t="s">
+        <v>328</v>
+      </c>
+      <c r="I69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" t="s">
+        <v>359</v>
+      </c>
+      <c r="I73" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" t="s">
+        <v>425</v>
+      </c>
+      <c r="K74" t="s">
+        <v>407</v>
+      </c>
+      <c r="L74" t="s">
+        <v>408</v>
+      </c>
+      <c r="O74" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
         <v>301</v>
       </c>
-      <c r="D44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44" t="s">
-        <v>306</v>
-      </c>
-      <c r="M44" t="s">
-        <v>393</v>
-      </c>
-      <c r="O44" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" t="s">
-        <v>306</v>
-      </c>
-      <c r="F45" t="s">
-        <v>337</v>
-      </c>
-      <c r="G45" t="s">
-        <v>365</v>
-      </c>
-      <c r="H45" t="s">
-        <v>332</v>
-      </c>
-      <c r="I45" t="s">
-        <v>365</v>
-      </c>
-      <c r="M45" t="s">
-        <v>397</v>
-      </c>
-      <c r="O45" t="s">
-        <v>286</v>
-      </c>
-      <c r="R45" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+      <c r="D75" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" t="s">
+        <v>304</v>
+      </c>
+      <c r="L75" t="s">
+        <v>409</v>
+      </c>
+      <c r="O75" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" t="s">
+        <v>327</v>
+      </c>
+      <c r="I76" t="s">
+        <v>358</v>
+      </c>
+      <c r="L76" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
         <v>302</v>
       </c>
-      <c r="D46" t="s">
-        <v>371</v>
-      </c>
-      <c r="E46" t="s">
-        <v>362</v>
-      </c>
-      <c r="G46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="E48" t="s">
-        <v>286</v>
-      </c>
-      <c r="G48" t="s">
-        <v>368</v>
-      </c>
-      <c r="I48" t="s">
-        <v>287</v>
-      </c>
-      <c r="J48" t="s">
-        <v>369</v>
-      </c>
-      <c r="L48" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E49" t="s">
-        <v>373</v>
-      </c>
-      <c r="G49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E50" t="s">
-        <v>384</v>
-      </c>
-      <c r="G50" t="s">
-        <v>334</v>
-      </c>
-      <c r="I50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E51" t="s">
-        <v>383</v>
-      </c>
-      <c r="G51" t="s">
-        <v>334</v>
-      </c>
-      <c r="I51" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E52" t="s">
-        <v>313</v>
-      </c>
-      <c r="G52" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E53" t="s">
-        <v>289</v>
-      </c>
-      <c r="G53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E54" t="s">
-        <v>385</v>
-      </c>
-      <c r="G54" t="s">
-        <v>334</v>
-      </c>
-      <c r="I54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E55" t="s">
+      <c r="N78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>333</v>
+      </c>
+      <c r="G79" t="s">
+        <v>328</v>
+      </c>
+      <c r="I79" t="s">
+        <v>316</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="L79" s="5"/>
+      <c r="N79" t="s">
         <v>31</v>
       </c>
-      <c r="G55" t="s">
-        <v>336</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="P79" t="s">
         <v>35</v>
       </c>
-      <c r="L55" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E56" t="s">
-        <v>386</v>
-      </c>
-      <c r="G56" t="s">
-        <v>334</v>
-      </c>
-      <c r="I56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="E57" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>271</v>
-      </c>
-      <c r="D60" t="s">
-        <v>379</v>
-      </c>
-      <c r="M60" t="s">
-        <v>392</v>
-      </c>
-      <c r="O60" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
-        <v>277</v>
-      </c>
-      <c r="D61" t="s">
-        <v>305</v>
-      </c>
-      <c r="E61" t="s">
-        <v>306</v>
-      </c>
-      <c r="M61" t="s">
-        <v>393</v>
-      </c>
-      <c r="O61" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D62" t="s">
-        <v>331</v>
-      </c>
-      <c r="E62" t="s">
-        <v>306</v>
-      </c>
-      <c r="F62" t="s">
-        <v>330</v>
-      </c>
-      <c r="G62" t="s">
-        <v>306</v>
-      </c>
-      <c r="H62" t="s">
-        <v>332</v>
-      </c>
-      <c r="I62" t="s">
-        <v>359</v>
-      </c>
-      <c r="K62" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
-        <v>302</v>
-      </c>
-      <c r="D63" t="s">
-        <v>371</v>
-      </c>
-      <c r="E63" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D64" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E65" t="s">
-        <v>382</v>
-      </c>
-      <c r="G65" t="s">
-        <v>333</v>
-      </c>
-      <c r="I65" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C69" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" t="s">
-        <v>366</v>
-      </c>
-      <c r="I69" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C70" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" t="s">
-        <v>364</v>
-      </c>
-      <c r="M70" t="s">
-        <v>392</v>
-      </c>
-      <c r="O70" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C71" t="s">
-        <v>303</v>
-      </c>
-      <c r="D71" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" t="s">
-        <v>306</v>
-      </c>
-      <c r="M71" t="s">
-        <v>393</v>
-      </c>
-      <c r="O71" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D72" t="s">
-        <v>331</v>
-      </c>
-      <c r="E72" t="s">
-        <v>306</v>
-      </c>
-      <c r="F72" t="s">
-        <v>330</v>
-      </c>
-      <c r="G72" t="s">
-        <v>365</v>
-      </c>
-      <c r="H72" t="s">
-        <v>332</v>
-      </c>
-      <c r="I72" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
-        <v>302</v>
-      </c>
-      <c r="D73" t="s">
-        <v>371</v>
-      </c>
-      <c r="E73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="D74" t="s">
-        <v>304</v>
-      </c>
-      <c r="N74" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E75" t="s">
-        <v>338</v>
-      </c>
-      <c r="G75" t="s">
-        <v>333</v>
-      </c>
-      <c r="I75" t="s">
-        <v>319</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="N75" t="s">
-        <v>31</v>
-      </c>
-      <c r="P75" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E76" t="s">
-        <v>286</v>
-      </c>
-      <c r="G76" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E77" t="s">
-        <v>373</v>
-      </c>
-      <c r="G77" t="s">
-        <v>149</v>
-      </c>
-      <c r="I77" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E78" t="s">
-        <v>312</v>
-      </c>
-      <c r="I78" t="s">
-        <v>35</v>
-      </c>
-      <c r="L78" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E79" t="s">
-        <v>339</v>
-      </c>
-      <c r="G79" t="s">
-        <v>333</v>
-      </c>
-      <c r="I79" t="s">
-        <v>297</v>
-      </c>
-      <c r="K79" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E80" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>334</v>
-      </c>
-      <c r="I80" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E81" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G81" t="s">
         <v>149</v>
       </c>
+      <c r="I81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E82" t="s">
+        <v>310</v>
+      </c>
+      <c r="I82" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E83" t="s">
+        <v>503</v>
+      </c>
+      <c r="G83" t="s">
+        <v>504</v>
+      </c>
+      <c r="H83" t="s">
+        <v>506</v>
+      </c>
+      <c r="I83" t="s">
+        <v>295</v>
+      </c>
+      <c r="K83" t="s">
+        <v>508</v>
+      </c>
+      <c r="R83" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="84" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" t="s">
-        <v>294</v>
+      <c r="E84" t="s">
+        <v>380</v>
+      </c>
+      <c r="G84" t="s">
+        <v>329</v>
       </c>
       <c r="I84" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C85" t="s">
-        <v>271</v>
-      </c>
-      <c r="D85" t="s">
-        <v>293</v>
-      </c>
-      <c r="M85" t="s">
-        <v>392</v>
-      </c>
-      <c r="O85" t="s">
-        <v>399</v>
+      <c r="E85" t="s">
+        <v>363</v>
+      </c>
+      <c r="G85" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C86" t="s">
-        <v>303</v>
-      </c>
-      <c r="D86" t="s">
-        <v>305</v>
-      </c>
       <c r="E86" t="s">
-        <v>306</v>
-      </c>
-      <c r="M86" t="s">
-        <v>393</v>
-      </c>
-      <c r="O86" t="s">
-        <v>406</v>
+        <v>511</v>
+      </c>
+      <c r="G86" t="s">
+        <v>505</v>
+      </c>
+      <c r="H86" t="s">
+        <v>506</v>
+      </c>
+      <c r="I86" t="s">
+        <v>509</v>
+      </c>
+      <c r="K86" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D87" t="s">
-        <v>331</v>
-      </c>
       <c r="E87" t="s">
-        <v>306</v>
-      </c>
-      <c r="F87" t="s">
-        <v>330</v>
-      </c>
-      <c r="G87" t="s">
-        <v>308</v>
-      </c>
-      <c r="H87" t="s">
-        <v>332</v>
-      </c>
-      <c r="I87" t="s">
-        <v>308</v>
-      </c>
-      <c r="M87" t="s">
-        <v>397</v>
-      </c>
-      <c r="O87" t="s">
-        <v>404</v>
-      </c>
-      <c r="R87" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C88" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D90" t="s">
         <v>302</v>
-      </c>
-      <c r="D88" t="s">
-        <v>371</v>
-      </c>
-      <c r="E88" t="s">
-        <v>409</v>
-      </c>
-      <c r="F88" t="s">
-        <v>328</v>
-      </c>
-      <c r="G88" t="s">
-        <v>327</v>
-      </c>
-      <c r="L88" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D89" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="E90" t="s">
-        <v>324</v>
-      </c>
-      <c r="G90" t="s">
-        <v>334</v>
-      </c>
-      <c r="I90" t="s">
-        <v>323</v>
-      </c>
-      <c r="M90" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="91" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E91" t="s">
-        <v>325</v>
-      </c>
-      <c r="G91" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I91" t="s">
-        <v>295</v>
+        <v>35</v>
+      </c>
+      <c r="L91" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E92" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="G92" t="s">
-        <v>149</v>
-      </c>
-      <c r="I92" t="s">
-        <v>314</v>
+        <v>328</v>
+      </c>
+      <c r="J92" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E93" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="G93" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="I93" t="s">
         <v>290</v>
@@ -32273,158 +34689,462 @@
     </row>
     <row r="94" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E94" t="s">
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="G94" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I94" t="s">
-        <v>296</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E95" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="I95" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="I97" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C98" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" t="s">
+        <v>291</v>
+      </c>
+      <c r="K98" t="s">
+        <v>407</v>
+      </c>
+      <c r="L98" t="s">
+        <v>408</v>
+      </c>
+      <c r="M98" t="s">
+        <v>366</v>
+      </c>
+      <c r="O98" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99" t="s">
+        <v>304</v>
+      </c>
+      <c r="L99" t="s">
+        <v>409</v>
+      </c>
+      <c r="O99" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>326</v>
+      </c>
+      <c r="E100" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" t="s">
+        <v>306</v>
+      </c>
+      <c r="H100" t="s">
+        <v>327</v>
+      </c>
+      <c r="I100" t="s">
+        <v>306</v>
+      </c>
+      <c r="L100" t="s">
+        <v>410</v>
+      </c>
+      <c r="O100" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="T100" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" t="s">
+        <v>364</v>
+      </c>
+      <c r="E101" t="s">
+        <v>483</v>
+      </c>
+      <c r="F101" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="L101" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E103" t="s">
         <v>321</v>
       </c>
-      <c r="M98" t="s">
+      <c r="G103" t="s">
+        <v>329</v>
+      </c>
+      <c r="I103" t="s">
+        <v>320</v>
+      </c>
+      <c r="M103" t="s">
         <v>392</v>
       </c>
-      <c r="O98" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C99" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" t="s">
-        <v>305</v>
-      </c>
-      <c r="E99" t="s">
-        <v>306</v>
-      </c>
-      <c r="M99" t="s">
-        <v>393</v>
-      </c>
-      <c r="O99" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D100" t="s">
-        <v>331</v>
-      </c>
-      <c r="E100" t="s">
-        <v>306</v>
-      </c>
-      <c r="F100" t="s">
-        <v>330</v>
-      </c>
-      <c r="G100" t="s">
-        <v>310</v>
-      </c>
-      <c r="H100" t="s">
-        <v>332</v>
-      </c>
-      <c r="I100" t="s">
-        <v>310</v>
-      </c>
-      <c r="M100" t="s">
-        <v>397</v>
-      </c>
-      <c r="O100" t="s">
-        <v>405</v>
-      </c>
-      <c r="R100" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="C101" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" t="s">
-        <v>371</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D102" t="s">
-        <v>304</v>
-      </c>
-      <c r="M102" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="E103" t="s">
-        <v>322</v>
-      </c>
-      <c r="G103" t="s">
-        <v>334</v>
-      </c>
-      <c r="I103" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="E104" t="s">
-        <v>291</v>
-      </c>
       <c r="G104" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I104" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E105" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="G105" t="s">
         <v>149</v>
       </c>
       <c r="I105" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E106" t="s">
+        <v>311</v>
+      </c>
+      <c r="G106" t="s">
+        <v>149</v>
+      </c>
+      <c r="I106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E107" t="s">
+        <v>314</v>
+      </c>
+      <c r="G107" t="s">
+        <v>149</v>
+      </c>
+      <c r="I107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E108" t="s">
+        <v>512</v>
+      </c>
+      <c r="G108" t="s">
+        <v>329</v>
+      </c>
+      <c r="I108" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="109" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s">
+        <v>329</v>
+      </c>
+      <c r="I109" t="s">
+        <v>294</v>
+      </c>
+      <c r="J109" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E110" t="s">
+        <v>423</v>
+      </c>
+      <c r="G110" t="s">
+        <v>329</v>
+      </c>
+      <c r="I110" t="s">
+        <v>313</v>
+      </c>
+      <c r="J110" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="112" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" t="s">
+        <v>282</v>
+      </c>
+      <c r="I112" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" t="s">
+        <v>318</v>
+      </c>
+      <c r="K113" t="s">
+        <v>407</v>
+      </c>
+      <c r="L113" t="s">
+        <v>408</v>
+      </c>
+      <c r="O113" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>301</v>
+      </c>
+      <c r="D114" t="s">
+        <v>303</v>
+      </c>
+      <c r="E114" t="s">
+        <v>304</v>
+      </c>
+      <c r="L114" t="s">
+        <v>409</v>
+      </c>
+      <c r="O114" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="D115" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" t="s">
+        <v>304</v>
+      </c>
+      <c r="F115" t="s">
+        <v>325</v>
+      </c>
+      <c r="G115" t="s">
+        <v>308</v>
+      </c>
+      <c r="H115" t="s">
+        <v>327</v>
+      </c>
+      <c r="I115" t="s">
+        <v>308</v>
+      </c>
+      <c r="L115" t="s">
+        <v>410</v>
+      </c>
+      <c r="O115" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q115" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="T115" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
         <v>300</v>
       </c>
-      <c r="G106" t="s">
-        <v>333</v>
-      </c>
-      <c r="I106" t="s">
-        <v>299</v>
+      <c r="D116" t="s">
+        <v>364</v>
+      </c>
+      <c r="E116" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="D117" t="s">
+        <v>302</v>
+      </c>
+      <c r="M117" t="s">
+        <v>392</v>
+      </c>
+      <c r="O117" s="5"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="E118" t="s">
+        <v>319</v>
+      </c>
+      <c r="G118" t="s">
+        <v>329</v>
+      </c>
+      <c r="I118" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="E119" t="s">
+        <v>289</v>
+      </c>
+      <c r="G119" t="s">
+        <v>330</v>
+      </c>
+      <c r="I119" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="E120" t="s">
+        <v>314</v>
+      </c>
+      <c r="G120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I120" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
+        <v>298</v>
+      </c>
+      <c r="G121" t="s">
+        <v>328</v>
+      </c>
+      <c r="I121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C130" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D132" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="134" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="139" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
+        <v>420</v>
+      </c>
+      <c r="H141" t="s">
+        <v>414</v>
+      </c>
+      <c r="I141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D142" t="s">
+        <v>370</v>
+      </c>
+      <c r="H142" t="s">
+        <v>418</v>
+      </c>
+      <c r="K142" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C143" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -32436,6 +35156,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:L29"/>
   <sheetViews>
@@ -32614,7 +35400,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:I10"/>
   <sheetViews>
@@ -32680,7 +35523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP502"/>
   <sheetViews>
@@ -32935,7 +35778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AA514"/>
   <sheetViews>
@@ -33588,13 +36431,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.15"/>
   <cols>
@@ -33641,15 +36482,15 @@
         <v>263</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>264</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>266</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.15">
@@ -33682,7 +36523,7 @@
         <v>220</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.15">
@@ -33729,7 +36570,7 @@
         <v>252</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.15">

--- a/20220923_掲示板-設計.xlsx
+++ b/20220923_掲示板-設計.xlsx
@@ -16,13 +16,14 @@
     <sheet name="DB設計" sheetId="6" r:id="rId2"/>
     <sheet name="拡張時" sheetId="10" r:id="rId3"/>
     <sheet name="DB設計(NG)" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
-    <sheet name="Image" sheetId="2" r:id="rId6"/>
-    <sheet name="認証" sheetId="3" r:id="rId7"/>
-    <sheet name="Log" sheetId="4" r:id="rId8"/>
-    <sheet name="接続管理" sheetId="5" r:id="rId9"/>
-    <sheet name="BBS表示" sheetId="9" r:id="rId10"/>
-    <sheet name="sort" sheetId="11" r:id="rId11"/>
+    <sheet name="関数変数" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
+    <sheet name="Image" sheetId="2" r:id="rId7"/>
+    <sheet name="認証" sheetId="3" r:id="rId8"/>
+    <sheet name="Log" sheetId="4" r:id="rId9"/>
+    <sheet name="接続管理" sheetId="5" r:id="rId10"/>
+    <sheet name="BBS表示" sheetId="9" r:id="rId11"/>
+    <sheet name="sort" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="608">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
@@ -2758,10 +2759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ownername</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細情報</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -2848,10 +2845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>vote</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2951,10 +2944,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>modified</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>threadId</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2992,10 +2981,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ownername</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投票者ID(mailAddress)</t>
     <rPh sb="0" eb="3">
       <t>トウヒョウシャ</t>
@@ -3273,10 +3258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>overview:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スレッド設定情報のと一致させること (DBのルール定義に必要になる)</t>
     <rPh sb="10" eb="12">
       <t>イッチ</t>
@@ -3396,9 +3377,6 @@
   <si>
     <t>(threadId_vote)_vote_(ownerid)</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deleteflg</t>
   </si>
   <si>
     <t>※ブロック制について</t>
@@ -4720,10 +4698,6 @@
     <t>sortIndex_Max</t>
   </si>
   <si>
-    <t>voteoptions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ary</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4814,6 +4788,805 @@
   </si>
   <si>
     <t>titlecategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myfunc_common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールExport名</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myconsolelog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript関数</t>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fb_myconsolelog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義場所</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function myconsolelog(msg0,mode=0){</t>
+  </si>
+  <si>
+    <t>ブラウザconsoleにログを記録する</t>
+    <rPh sb="15" eb="17">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode=1とした場合、サーバ側へのアクセスログにも出力する。</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準（mode=0)の場合は、サーバ登録のアカウント情報で　logmode値が登録されている場合にのみ出力を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode=-1の場合、常にサーバ側へは出力しない。</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function buildHtmlpageSource(strTitle,strBodyContents,strHeadContents="",strHeadJSCode=""){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buildHtmlpageSource</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返値</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLソースコードを生成して返す</t>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップや別ウインドウ生成においての使用を想定。</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLソースコード（文字列）</t>
+    <rPh sb="11" eb="14">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>escapeHtml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象文字は、　｛＆、＜、＞、’、”、‘｝の５つ。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ処理を行う</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function escapeHtml(orgdata , reverseFlg=0) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reverseFlg=1の場合、逆変換</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変換文字</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function myDateTimeFormat(orgvalue,strflg=2){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myDateTimeFormat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orgvalue　は、JavaScriptの日付値、1900年ベースのシリアル値、firebaseの日付値、fireStoreの日付値　のいづれか。</t>
+    <rPh sb="22" eb="24">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付値を文字に整形して返す。形式は 「yyyy/mm/dd hh:mm:ss.ｆｆｆ」</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strflgは、末尾から省略する項目の数を指定。デフォルトの２なら、ssとfff が省略されて 分までの結果が返される。</t>
+    <rPh sb="8" eb="10">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function myTypeof(obj){</t>
+  </si>
+  <si>
+    <t>myTypeof</t>
+  </si>
+  <si>
+    <t>function myTimestampToDate(timestamp){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myTimestampToDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firebaseの日付値、fireStoreの日付値　を、JavaScriptの日付値に変換して返す</t>
+    <rPh sb="40" eb="42">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firebaseの日付値、fireStoreの日付値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptの日付値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考まで、逆変換は fsdb_Timestamp(Date()).  現在時刻は new Date(getServerTimeFromRTDB()); となる。</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript変数の型を判定して返す</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createPromise_waitDeleteKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function createPromise_waitDeleteKey(globalAry , key ,initializeFlg=true,maxSec=1,intervalms=100){</t>
+  </si>
+  <si>
+    <t>//  非同期処理の完了を待機する。管理のために連想配列を渡す必要がある。</t>
+  </si>
+  <si>
+    <t>//  非同期処理側で管理用連想配列から該当のキーを削除(delete globalAry[key])するまで(または指定された最大待機秒数経過まで)待機する</t>
+  </si>
+  <si>
+    <t>//      globalAry : 管理用の連想配列。</t>
+  </si>
+  <si>
+    <t>//      key       : globalAryに格納するためのキー値。</t>
+  </si>
+  <si>
+    <t>//      initializeFlg : 通常はtrueで使用する。既に非同期処理が開始されてしまっている（既に管理用連想配列にキーが登録されている）ならfalseで使用</t>
+  </si>
+  <si>
+    <t>//      maxSec/intervalms : 最大待機時間を指定する。</t>
+  </si>
+  <si>
+    <t>//******** sample ↓*********</t>
+  </si>
+  <si>
+    <t>//let testtestAry={}</t>
+  </si>
+  <si>
+    <t>//async function testwait(strKey="test",waitSec=5){</t>
+  </si>
+  <si>
+    <t>//    let waitPromise = createPromise_waitDeleteKey(testtestAry,strKey,true,waitSec);</t>
+  </si>
+  <si>
+    <t>//    console.log(`[Info] End処理を ${waitSec}秒間 待機しています・・・`);</t>
+  </si>
+  <si>
+    <t>//    setTimeout( function(){delete testtestAry[strKey];} ,3000);</t>
+  </si>
+  <si>
+    <t>//    if(await waitPromise.catch(function(strRejectInfo){</t>
+  </si>
+  <si>
+    <t>//        console.log(`[Warning] 更新待機がtimeoutしました : ${strRejectInfo}`);</t>
+  </si>
+  <si>
+    <t>//        return false;</t>
+  </si>
+  <si>
+    <t>//    }) ){</t>
+  </si>
+  <si>
+    <t>//        console.log(`[Info] 時間内にEndしました `);</t>
+  </si>
+  <si>
+    <t>//    }</t>
+  </si>
+  <si>
+    <t>//}</t>
+  </si>
+  <si>
+    <t>プロミスオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownername</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新時には、スレッド名IDの更新日時もへんこうするべきか</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""以外の場合は、管理者以外には見せない？　初期値は"作成中"</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※リッスンイベントのオプションについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発中、データ更新を試行して失敗（ルール違反）したときに、Firestoreにはデータが登録されないのに</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indexedDBにはデータが登録される現象が発生した。</t>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firestoreの更新通知のイベントは、1つの更新で2回発生する。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　https://firebase.google.com/docs/firestore/query-data/listen?hl=ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいデータにより、直ちに変更イベントが発生します。ドキュメントがまだバックエンドに書き込まれていないため、「保留中の書き込み」フラグは true です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメントがバックエンドに書き込まれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドから、書き込みの成功がクライアントに通知されます。ドキュメント データは変更されていませんが、「保留中の書き込み」フラグが false に変化したため、メタデータには変更が発生しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　https://zenn.dev/zudah228/scraps/2c05d024a76e88</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得されたドキュメントは、バックエンドにまだ書き込まれていないローカル変更がドキュメントにあるかどうかを示す metadata.hasPendingWrites プロパティを持ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　serverTimestampの値を取得するのなら、hasPendingWritesの値がfalseになるのを待機しなければならない。</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　https://firebase.google.com/docs/reference/js/firestore_.snapshotlistenoptions.md?hl=ja#snapshotlistenoptions_interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onSnapshot()　のオプションの説明</t>
+    <rPh sb="20" eb="22">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hasPendingWrites=falseであるイベントを発生させなくする方法は、今のところ無いらしい。</t>
+    <rPh sb="30" eb="32">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return Object.prototype.toString.call(obj);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overview:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hideflg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>async function getDataFromFirestoreDb(refPath , startpos,datalength){</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myfunc_firestore.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fb_getDataFromFirestoreDb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firestoreDBからデータを取得する。あわせて、IndexDBにキャッシュを作成し、Firebaseのリスナーによる自動更新を設定する。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ firestoreからのデータ取得は　getDataBlock()関数⇒getDataFromFireStore_Block()関数 が本体。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスはブロック単位で行う。このため、参照するデータには、[sort]列が定義されていることが前提となる。</t>
+    <rPh sb="9" eb="11">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既にIndexedDBにキャッシュ、およびリスナ設置が完了している場合には、fireStoreにはアクセスせずにIndexedDBからデータを取得する。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理に失敗した場合は　Nullを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 必要となる列の名は、indexeddb.js内の transferDBPath()関数にて定義されている</t>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vote_old</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownerid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voteoptions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownername</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5349,13 +6122,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5450,6 +6223,170 @@
             <a:t>}</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>99173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689412" y="15227114"/>
+          <a:ext cx="829235" cy="12886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>124945</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2666999" y="13727206"/>
+          <a:ext cx="829235" cy="12886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="27925059"/>
+          <a:ext cx="5972735" cy="717177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>this.unSubscriber = onSnapshot(this.query, (snapshot) =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>	snapshot.docChanges().forEach((e) =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>		console.log(e.doc.metadata.hasPendingWrites)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -33535,87 +34472,87 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -33625,6 +34562,344 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:U79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E22" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E23" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F29" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="G30" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="G31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="J32" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E40" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="G41" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E43" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="G44" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="D46" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F49" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F50" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G51" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G52" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F54" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G55" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G56" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E58" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F59" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G60" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="F63" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="G64" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G65" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="H66" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="H67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D70" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D71" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D72" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E73" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G74" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E75" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G76" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E77" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G78" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G79" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G116"/>
   <sheetViews>
@@ -33636,160 +34911,160 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E39" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C99" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E99" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E101" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E103" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G104" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E105" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E108" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D109" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G109" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E111" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F112" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D113" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E114" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C116" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -33799,7 +35074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
@@ -33811,7 +35086,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -33822,10 +35097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33835,7 +35110,7 @@
         <v>267</v>
       </c>
       <c r="U1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -33924,72 +35199,72 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="I22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.15">
@@ -34002,7 +35277,7 @@
         <v>270</v>
       </c>
       <c r="D30" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
@@ -34010,7 +35285,7 @@
         <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
@@ -34018,62 +35293,62 @@
         <v>275</v>
       </c>
       <c r="D32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" t="s">
         <v>303</v>
-      </c>
-      <c r="E32" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
         <v>149</v>
       </c>
       <c r="I36" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G37" t="s">
         <v>149</v>
@@ -34087,13 +35362,13 @@
         <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I38" t="s">
         <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.15">
@@ -34101,10 +35376,10 @@
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.15">
@@ -34115,10 +35390,10 @@
         <v>273</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.15">
@@ -34129,82 +35404,82 @@
         <v>272</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M45" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q45" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q46" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q47" t="s">
         <v>284</v>
       </c>
       <c r="T47" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G48" t="s">
         <v>271</v>
@@ -34212,23 +35487,23 @@
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G50" t="s">
         <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G51" t="s">
         <v>149</v>
@@ -34242,24 +35517,24 @@
         <v>284</v>
       </c>
       <c r="G52" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I52" t="s">
         <v>285</v>
       </c>
       <c r="J52" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E53" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I53" t="s">
         <v>283</v>
@@ -34267,13 +35542,13 @@
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E54" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.15">
@@ -34284,15 +35559,15 @@
         <v>149</v>
       </c>
       <c r="I55" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I56" t="s">
         <v>286</v>
@@ -34303,21 +35578,21 @@
         <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I57" t="s">
         <v>35</v>
       </c>
       <c r="L57" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
-        <v>377</v>
+        <v>592</v>
       </c>
       <c r="G58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
@@ -34325,11 +35600,14 @@
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E59" s="5" t="s">
-        <v>398</v>
+        <v>593</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>98</v>
+        <v>590</v>
+      </c>
+      <c r="L59" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.15">
@@ -34337,19 +35615,19 @@
         <v>270</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L63" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O63" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q63" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.15">
@@ -34357,16 +35635,16 @@
         <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L64" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O64" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q64" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.15">
@@ -34374,63 +35652,63 @@
         <v>275</v>
       </c>
       <c r="D65" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L65" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H66" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I66" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K66" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E67" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E69" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G69" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="3:17" x14ac:dyDescent="0.15">
@@ -34438,10 +35716,10 @@
         <v>270</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I73" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.15">
@@ -34449,95 +35727,95 @@
         <v>269</v>
       </c>
       <c r="D74" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K74" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L74" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O74" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q74" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" t="s">
         <v>301</v>
       </c>
-      <c r="D75" t="s">
-        <v>303</v>
-      </c>
       <c r="E75" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L75" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O75" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q75" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G76" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H76" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I76" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L76" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D77" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E77" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N78" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G79" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L79" s="5"/>
       <c r="N79" t="s">
@@ -34552,12 +35830,12 @@
         <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E81" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G81" t="s">
         <v>149</v>
@@ -34568,49 +35846,49 @@
     </row>
     <row r="82" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I82" t="s">
         <v>35</v>
       </c>
       <c r="L82" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E83" t="s">
-        <v>503</v>
+        <v>606</v>
       </c>
       <c r="G83" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H83" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I83" t="s">
+        <v>294</v>
+      </c>
+      <c r="K83" t="s">
+        <v>501</v>
+      </c>
+      <c r="R83" t="s">
         <v>295</v>
-      </c>
-      <c r="K83" t="s">
-        <v>508</v>
-      </c>
-      <c r="R83" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="84" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E84" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G84" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E85" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G85" t="s">
         <v>149</v>
@@ -34618,89 +35896,89 @@
     </row>
     <row r="86" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E86" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G86" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H86" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I86" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K86" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E87" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E89" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I91" t="s">
         <v>35</v>
       </c>
       <c r="L91" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E92" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J92" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E93" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E94" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I94" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="3:18" x14ac:dyDescent="0.15">
       <c r="E95" t="s">
-        <v>366</v>
+        <v>573</v>
       </c>
       <c r="G95" t="s">
         <v>149</v>
@@ -34708,443 +35986,531 @@
       <c r="I95" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C97" t="s">
-        <v>270</v>
-      </c>
-      <c r="D97" t="s">
-        <v>292</v>
-      </c>
-      <c r="I97" t="s">
-        <v>349</v>
+      <c r="K95" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E96" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" t="s">
+        <v>149</v>
+      </c>
+      <c r="I96" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" t="s">
         <v>291</v>
       </c>
-      <c r="K98" t="s">
-        <v>407</v>
-      </c>
-      <c r="L98" t="s">
-        <v>408</v>
-      </c>
-      <c r="M98" t="s">
-        <v>366</v>
-      </c>
-      <c r="O98" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>389</v>
+      <c r="I98" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C99" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" t="s">
+        <v>290</v>
+      </c>
+      <c r="K99" t="s">
+        <v>401</v>
+      </c>
+      <c r="L99" t="s">
+        <v>402</v>
+      </c>
+      <c r="M99" t="s">
+        <v>362</v>
+      </c>
+      <c r="O99" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C100" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" t="s">
         <v>301</v>
       </c>
-      <c r="D99" t="s">
-        <v>303</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
+        <v>302</v>
+      </c>
+      <c r="L100" t="s">
+        <v>403</v>
+      </c>
+      <c r="O100" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" t="s">
+        <v>302</v>
+      </c>
+      <c r="F101" t="s">
+        <v>321</v>
+      </c>
+      <c r="G101" t="s">
         <v>304</v>
       </c>
-      <c r="L99" t="s">
-        <v>409</v>
-      </c>
-      <c r="O99" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D100" t="s">
-        <v>326</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="H101" t="s">
+        <v>323</v>
+      </c>
+      <c r="I101" t="s">
         <v>304</v>
       </c>
-      <c r="F100" t="s">
-        <v>325</v>
-      </c>
-      <c r="G100" t="s">
-        <v>306</v>
-      </c>
-      <c r="H100" t="s">
-        <v>327</v>
-      </c>
-      <c r="I100" t="s">
-        <v>306</v>
-      </c>
-      <c r="L100" t="s">
-        <v>410</v>
-      </c>
-      <c r="O100" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q100" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="T100" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C101" t="s">
+      <c r="L101" t="s">
+        <v>404</v>
+      </c>
+      <c r="O101" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="T101" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" t="s">
+        <v>360</v>
+      </c>
+      <c r="E102" t="s">
+        <v>477</v>
+      </c>
+      <c r="F102" t="s">
+        <v>320</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="L102" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
         <v>300</v>
       </c>
-      <c r="D101" t="s">
-        <v>364</v>
-      </c>
-      <c r="E101" t="s">
-        <v>483</v>
-      </c>
-      <c r="F101" t="s">
-        <v>324</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L101" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="E103" t="s">
-        <v>321</v>
-      </c>
-      <c r="G103" t="s">
-        <v>329</v>
-      </c>
-      <c r="I103" t="s">
-        <v>320</v>
-      </c>
-      <c r="M103" t="s">
-        <v>392</v>
-      </c>
-      <c r="O103" s="5"/>
     </row>
     <row r="104" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E104" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G104" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I104" t="s">
-        <v>293</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M104" t="s">
+        <v>387</v>
+      </c>
+      <c r="O104" s="5"/>
     </row>
     <row r="105" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E105" t="s">
-        <v>366</v>
+        <v>571</v>
       </c>
       <c r="G105" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="I105" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E106" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="G106" t="s">
         <v>149</v>
       </c>
       <c r="I106" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E107" t="s">
-        <v>314</v>
+        <v>572</v>
       </c>
       <c r="G107" t="s">
         <v>149</v>
       </c>
       <c r="I107" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E108" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="G108" t="s">
-        <v>329</v>
+        <v>149</v>
       </c>
       <c r="I108" t="s">
-        <v>510</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E109" t="s">
-        <v>27</v>
+        <v>505</v>
       </c>
       <c r="G109" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I109" t="s">
-        <v>294</v>
-      </c>
-      <c r="J109" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>423</v>
+        <v>570</v>
       </c>
       <c r="G110" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I110" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="J110" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C112" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E111" t="s">
+        <v>417</v>
+      </c>
+      <c r="G111" t="s">
+        <v>325</v>
+      </c>
+      <c r="I111" t="s">
+        <v>311</v>
+      </c>
+      <c r="J111" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
         <v>270</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>282</v>
       </c>
-      <c r="I112" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C113" t="s">
+      <c r="I113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
         <v>269</v>
       </c>
-      <c r="D113" t="s">
-        <v>318</v>
-      </c>
-      <c r="K113" t="s">
+      <c r="D114" t="s">
+        <v>315</v>
+      </c>
+      <c r="K114" t="s">
+        <v>401</v>
+      </c>
+      <c r="L114" t="s">
+        <v>402</v>
+      </c>
+      <c r="O114" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>299</v>
+      </c>
+      <c r="D115" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" t="s">
+        <v>302</v>
+      </c>
+      <c r="L115" t="s">
+        <v>403</v>
+      </c>
+      <c r="O115" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D116" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" t="s">
+        <v>302</v>
+      </c>
+      <c r="F116" t="s">
+        <v>321</v>
+      </c>
+      <c r="G116" t="s">
+        <v>306</v>
+      </c>
+      <c r="H116" t="s">
+        <v>323</v>
+      </c>
+      <c r="I116" t="s">
+        <v>306</v>
+      </c>
+      <c r="L116" t="s">
+        <v>404</v>
+      </c>
+      <c r="O116" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="T116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>298</v>
+      </c>
+      <c r="D117" t="s">
+        <v>360</v>
+      </c>
+      <c r="E117" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+      <c r="M118" t="s">
+        <v>387</v>
+      </c>
+      <c r="O118" s="5"/>
+    </row>
+    <row r="119" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E119" t="s">
+        <v>605</v>
+      </c>
+      <c r="G119" t="s">
+        <v>325</v>
+      </c>
+      <c r="I119" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="120" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E120" t="s">
+        <v>607</v>
+      </c>
+      <c r="G120" t="s">
+        <v>326</v>
+      </c>
+      <c r="I120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
+        <v>362</v>
+      </c>
+      <c r="G121" t="s">
+        <v>149</v>
+      </c>
+      <c r="I121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E122" t="s">
+        <v>603</v>
+      </c>
+      <c r="G122" t="s">
+        <v>325</v>
+      </c>
+      <c r="I122" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>604</v>
+      </c>
+      <c r="G123" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D134" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
         <v>407</v>
       </c>
-      <c r="L113" t="s">
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D143" t="s">
+        <v>414</v>
+      </c>
+      <c r="H143" t="s">
         <v>408</v>
       </c>
-      <c r="O113" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C114" t="s">
-        <v>301</v>
-      </c>
-      <c r="D114" t="s">
-        <v>303</v>
-      </c>
-      <c r="E114" t="s">
-        <v>304</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="I143" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
+        <v>366</v>
+      </c>
+      <c r="H144" t="s">
+        <v>412</v>
+      </c>
+      <c r="K144" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
         <v>409</v>
       </c>
-      <c r="O114" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="D115" t="s">
-        <v>326</v>
-      </c>
-      <c r="E115" t="s">
-        <v>304</v>
-      </c>
-      <c r="F115" t="s">
-        <v>325</v>
-      </c>
-      <c r="G115" t="s">
-        <v>308</v>
-      </c>
-      <c r="H115" t="s">
-        <v>327</v>
-      </c>
-      <c r="I115" t="s">
-        <v>308</v>
-      </c>
-      <c r="L115" t="s">
-        <v>410</v>
-      </c>
-      <c r="O115" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q115" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="T115" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C116" t="s">
-        <v>300</v>
-      </c>
-      <c r="D116" t="s">
-        <v>364</v>
-      </c>
-      <c r="E116" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="D117" t="s">
-        <v>302</v>
-      </c>
-      <c r="M117" t="s">
-        <v>392</v>
-      </c>
-      <c r="O117" s="5"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E118" t="s">
-        <v>319</v>
-      </c>
-      <c r="G118" t="s">
-        <v>329</v>
-      </c>
-      <c r="I118" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E119" t="s">
-        <v>289</v>
-      </c>
-      <c r="G119" t="s">
-        <v>330</v>
-      </c>
-      <c r="I119" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E120" t="s">
-        <v>314</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
-      <c r="I120" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E121" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121" t="s">
-        <v>328</v>
-      </c>
-      <c r="I121" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C129" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C130" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C131" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D132" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C134" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C135" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C136" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C138" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D139" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D141" t="s">
-        <v>420</v>
-      </c>
-      <c r="H141" t="s">
-        <v>414</v>
-      </c>
-      <c r="I141" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D142" t="s">
-        <v>370</v>
-      </c>
-      <c r="H142" t="s">
-        <v>418</v>
-      </c>
-      <c r="K142" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C143" t="s">
-        <v>415</v>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>579</v>
+      </c>
+      <c r="I157" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D159" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="164" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D164" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="166" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="I166" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="167" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E167" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="173" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="174" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E174" t="s">
+        <v>588</v>
+      </c>
+      <c r="I174" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -35167,52 +36533,52 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -35402,6 +36768,592 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:E125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>522</v>
+      </c>
+      <c r="E30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>507</v>
+      </c>
+      <c r="C35" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>508</v>
+      </c>
+      <c r="C36" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>522</v>
+      </c>
+      <c r="E41" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>510</v>
+      </c>
+      <c r="C45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>507</v>
+      </c>
+      <c r="C46" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>508</v>
+      </c>
+      <c r="C47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>512</v>
+      </c>
+      <c r="C48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>521</v>
+      </c>
+      <c r="E50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>522</v>
+      </c>
+      <c r="E52" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C55" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>507</v>
+      </c>
+      <c r="C56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>508</v>
+      </c>
+      <c r="C57" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>512</v>
+      </c>
+      <c r="C58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>521</v>
+      </c>
+      <c r="E61" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>522</v>
+      </c>
+      <c r="E62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>510</v>
+      </c>
+      <c r="C69" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>508</v>
+      </c>
+      <c r="C71" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>512</v>
+      </c>
+      <c r="C72" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>510</v>
+      </c>
+      <c r="C81" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>507</v>
+      </c>
+      <c r="C82" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>508</v>
+      </c>
+      <c r="C83" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>512</v>
+      </c>
+      <c r="C84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E86" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D87" t="s">
+        <v>521</v>
+      </c>
+      <c r="E87" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E88" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E89" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E90" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
+        <v>522</v>
+      </c>
+      <c r="E92" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E94" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E96" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E97" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E98" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E101" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E102" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E104" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E106" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>510</v>
+      </c>
+      <c r="C116" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>507</v>
+      </c>
+      <c r="C117" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>508</v>
+      </c>
+      <c r="C118" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>512</v>
+      </c>
+      <c r="C119" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E121" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E122" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E124" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E125" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35412,43 +37364,43 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="J4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F6" t="s">
         <v>268</v>
       </c>
       <c r="J6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" t="s">
         <v>434</v>
-      </c>
-      <c r="F7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -35457,7 +37409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:I10"/>
   <sheetViews>
@@ -35523,7 +37475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP502"/>
   <sheetViews>
@@ -35778,7 +37730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AA514"/>
   <sheetViews>
@@ -36429,342 +38381,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C7" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D11" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D12" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="D21" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E22" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E23" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="D26" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="F29" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="G30" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="G31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J32" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J33" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="F34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C38" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="D39" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E40" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="G41" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E43" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="G44" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="D46" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E48" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F49" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F50" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G51" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G52" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F54" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G55" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G56" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="E58" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F59" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G60" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G61" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="F63" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.15">
-      <c r="G64" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G65" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="H66" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="H67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D70" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D71" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D72" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="E73" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G74" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="E75" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G76" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="E77" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G78" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G79" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/20220923_掲示板-設計.xlsx
+++ b/20220923_掲示板-設計.xlsx
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="DB設計" sheetId="6" r:id="rId2"/>
-    <sheet name="拡張時" sheetId="10" r:id="rId3"/>
-    <sheet name="DB設計(NG)" sheetId="1" r:id="rId4"/>
+    <sheet name="DB設計(NG)" sheetId="1" r:id="rId3"/>
+    <sheet name="拡張時" sheetId="10" r:id="rId4"/>
     <sheet name="関数変数" sheetId="12" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
     <sheet name="Image" sheetId="2" r:id="rId7"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="619">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
@@ -5587,6 +5587,110 @@
   </si>
   <si>
     <t>ownername</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicフォルダ内</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srcフォルダ内</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をコピーして作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>furutaniBBS　内の　BBS用ストアを追加定義する</t>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　https://firebase.google.com/?hl=ja　から、firestoreDatabaseを操作。</t>
+    <rPh sb="57" eb="59">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BulletinBoardListコレクション配下に、 BBS01 を作成。</t>
+    <rPh sb="23" eb="25">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs.html　を修正</t>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加した掲示板へ入室するためのボタンを追加（HTMLに配置＆　JSファイルに処理を追加）</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myfunc_indexeddb.js　を修正　　（upgradeneededイベント内）</t>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbs01.html , bbs01.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chaptertitle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6122,13 +6226,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6320,13 +6424,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35097,10 +35201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U174"/>
+  <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36001,515 +36105,523 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C98" t="s">
-        <v>270</v>
-      </c>
-      <c r="D98" t="s">
-        <v>291</v>
-      </c>
-      <c r="I98" t="s">
-        <v>345</v>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E97" t="s">
+        <v>618</v>
+      </c>
+      <c r="G97" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
-      </c>
-      <c r="K99" t="s">
-        <v>401</v>
-      </c>
-      <c r="L99" t="s">
-        <v>402</v>
-      </c>
-      <c r="M99" t="s">
-        <v>362</v>
-      </c>
-      <c r="O99" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>384</v>
+        <v>291</v>
+      </c>
+      <c r="I99" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" t="s">
+        <v>290</v>
+      </c>
+      <c r="K100" t="s">
+        <v>401</v>
+      </c>
+      <c r="L100" t="s">
+        <v>402</v>
+      </c>
+      <c r="M100" t="s">
+        <v>362</v>
+      </c>
+      <c r="O100" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
         <v>299</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>301</v>
-      </c>
-      <c r="E100" t="s">
-        <v>302</v>
-      </c>
-      <c r="L100" t="s">
-        <v>403</v>
-      </c>
-      <c r="O100" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D101" t="s">
-        <v>322</v>
       </c>
       <c r="E101" t="s">
         <v>302</v>
       </c>
-      <c r="F101" t="s">
+      <c r="L101" t="s">
+        <v>403</v>
+      </c>
+      <c r="O101" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" t="s">
         <v>321</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>304</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
         <v>323</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I102" t="s">
         <v>304</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L102" t="s">
         <v>404</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O102" t="s">
         <v>382</v>
       </c>
-      <c r="Q101" s="5" t="s">
+      <c r="Q102" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="T101" t="s">
+      <c r="T102" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C102" t="s">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
         <v>298</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>360</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>477</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>320</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L103" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D103" t="s">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="E104" t="s">
-        <v>318</v>
-      </c>
-      <c r="G104" t="s">
-        <v>325</v>
-      </c>
-      <c r="I104" t="s">
-        <v>317</v>
-      </c>
-      <c r="M104" t="s">
-        <v>387</v>
-      </c>
-      <c r="O104" s="5"/>
     </row>
     <row r="105" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E105" t="s">
-        <v>571</v>
+        <v>318</v>
       </c>
       <c r="G105" t="s">
         <v>325</v>
       </c>
       <c r="I105" t="s">
-        <v>292</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M105" t="s">
+        <v>387</v>
+      </c>
+      <c r="O105" s="5"/>
     </row>
     <row r="106" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E106" t="s">
-        <v>362</v>
+        <v>571</v>
       </c>
       <c r="G106" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="I106" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E107" t="s">
-        <v>572</v>
+        <v>362</v>
       </c>
       <c r="G107" t="s">
         <v>149</v>
       </c>
       <c r="I107" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E108" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G108" t="s">
         <v>149</v>
       </c>
       <c r="I108" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E109" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="I109" t="s">
-        <v>503</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>570</v>
+        <v>505</v>
       </c>
       <c r="G110" t="s">
         <v>325</v>
       </c>
       <c r="I110" t="s">
-        <v>293</v>
-      </c>
-      <c r="J110" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E111" t="s">
-        <v>417</v>
+        <v>570</v>
       </c>
       <c r="G111" t="s">
         <v>325</v>
       </c>
       <c r="I111" t="s">
+        <v>293</v>
+      </c>
+      <c r="J111" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="112" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E112" t="s">
+        <v>417</v>
+      </c>
+      <c r="G112" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" t="s">
         <v>311</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J112" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C113" t="s">
-        <v>270</v>
-      </c>
-      <c r="D113" t="s">
-        <v>282</v>
-      </c>
-      <c r="I113" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="114" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
-      </c>
-      <c r="K114" t="s">
-        <v>401</v>
-      </c>
-      <c r="L114" t="s">
-        <v>402</v>
-      </c>
-      <c r="O114" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>384</v>
+        <v>282</v>
+      </c>
+      <c r="I114" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C115" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" t="s">
+        <v>315</v>
+      </c>
+      <c r="K115" t="s">
+        <v>401</v>
+      </c>
+      <c r="L115" t="s">
+        <v>402</v>
+      </c>
+      <c r="O115" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="116" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
         <v>299</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>301</v>
-      </c>
-      <c r="E115" t="s">
-        <v>302</v>
-      </c>
-      <c r="L115" t="s">
-        <v>403</v>
-      </c>
-      <c r="O115" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D116" t="s">
-        <v>322</v>
       </c>
       <c r="E116" t="s">
         <v>302</v>
       </c>
-      <c r="F116" t="s">
+      <c r="L116" t="s">
+        <v>403</v>
+      </c>
+      <c r="O116" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D117" t="s">
+        <v>322</v>
+      </c>
+      <c r="E117" t="s">
+        <v>302</v>
+      </c>
+      <c r="F117" t="s">
         <v>321</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G117" t="s">
         <v>306</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H117" t="s">
         <v>323</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I117" t="s">
         <v>306</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L117" t="s">
         <v>404</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O117" t="s">
         <v>382</v>
       </c>
-      <c r="Q116" s="5" t="s">
+      <c r="Q117" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="T116" t="s">
+      <c r="T117" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C117" t="s">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
         <v>298</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>360</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D118" t="s">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D119" t="s">
         <v>300</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M119" t="s">
         <v>387</v>
       </c>
-      <c r="O118" s="5"/>
-    </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="E119" t="s">
-        <v>605</v>
-      </c>
-      <c r="G119" t="s">
-        <v>325</v>
-      </c>
-      <c r="I119" t="s">
-        <v>319</v>
-      </c>
+      <c r="O119" s="5"/>
     </row>
     <row r="120" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E120" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I120" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E121" t="s">
-        <v>362</v>
+        <v>607</v>
       </c>
       <c r="G121" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="I121" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E122" t="s">
-        <v>603</v>
+        <v>362</v>
       </c>
       <c r="G122" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="I122" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E123" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G123" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+      <c r="I123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E124" t="s">
+        <v>604</v>
+      </c>
+      <c r="G124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C131" t="s">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C132" t="s">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C133" t="s">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D134" t="s">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D135" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C136" t="s">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C137" t="s">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C138" t="s">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C139" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C140" t="s">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D141" t="s">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D142" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C142" t="s">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C143" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D143" t="s">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
         <v>414</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H144" t="s">
         <v>408</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I144" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D144" t="s">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D145" t="s">
         <v>366</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H145" t="s">
         <v>412</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K145" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C145" t="s">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B153" t="s">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C154" t="s">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C155" t="s">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C157" t="s">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
         <v>579</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I158" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D159" t="s">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
         <v>581</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D160" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="161" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="162" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D162" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D164" t="s">
+    <row r="165" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D165" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="I166" t="s">
+    <row r="167" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="I167" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E167" t="s">
+    <row r="168" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E168" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="173" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D173" t="s">
+    <row r="174" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="174" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="E174" t="s">
+    <row r="175" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="E175" t="s">
         <v>588</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I175" t="s">
         <v>587</v>
       </c>
     </row>
@@ -36522,72 +36634,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:L29"/>
   <sheetViews>
@@ -36763,6 +36809,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" t="s">
+        <v>617</v>
+      </c>
+      <c r="H7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>609</v>
+      </c>
+      <c r="F10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
